--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_10_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_10_end.xlsx
@@ -2300,7 +2300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Texas"]   The Rat King promised us a "gift", don't forget.
+    <t xml:space="preserve">[name="Texas"]   The Rat King promised us a 'gift', don't forget.
 </t>
   </si>
   <si>
@@ -2328,7 +2328,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Texas"]   Bison and Mostima, you deal with the "gift."
+    <t xml:space="preserve">[name="Texas"]   Bison and Mostima, you deal with the 'gift.'
 </t>
   </si>
   <si>
@@ -2668,7 +2668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bison"]   "Happy Sauin"...
+    <t xml:space="preserve">[name="Bison"]   'Happy Sauin'...
 </t>
   </si>
   <si>
